--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1300.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1300.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9981422259837723</v>
+        <v>1.113595128059387</v>
       </c>
       <c r="B1">
-        <v>2.597546980134454</v>
+        <v>2.250239372253418</v>
       </c>
       <c r="C1">
-        <v>5.742560028605874</v>
+        <v>10.22958755493164</v>
       </c>
       <c r="D1">
-        <v>2.172963688454232</v>
+        <v>1.582264542579651</v>
       </c>
       <c r="E1">
-        <v>1.260186736632741</v>
+        <v>1.292576909065247</v>
       </c>
     </row>
   </sheetData>
